--- a/Databases/日本語_sentences.xlsx
+++ b/Databases/日本語_sentences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A690E-19D9-4343-BBC1-FC6B24E100D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B29039-BB5F-475D-A7FB-ED1E4A4704FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="6630" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="12585" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -32,114 +32,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>I deeply regret what I said.</t>
-  </si>
-  <si>
-    <t>He regretted his harsh words.</t>
-  </si>
-  <si>
-    <t>You’ll be sorry if I catch you!</t>
-  </si>
-  <si>
-    <t>He was a man of advanced years.</t>
-  </si>
-  <si>
-    <t>She lived to a great age.</t>
-  </si>
-  <si>
-    <t>He lived to the ripe old age of 91.</t>
-  </si>
-  <si>
-    <t>Is she in on the secret?</t>
-  </si>
-  <si>
-    <t>top-secret or classifiable information</t>
-  </si>
-  <si>
-    <t>The meeting was held in secret.</t>
-  </si>
-  <si>
-    <t>Did you get his number down?</t>
-  </si>
-  <si>
-    <t>What is your fax number?</t>
-  </si>
-  <si>
-    <t>What’s your extension number?</t>
-  </si>
-  <si>
-    <t>The caller hung up.</t>
-  </si>
-  <si>
-    <t>There goes the phone.</t>
-  </si>
-  <si>
-    <t>Might I use your phone?</t>
-  </si>
-  <si>
-    <t>나는 내가 한 말을 깊이 후회한다.</t>
-  </si>
-  <si>
-    <t>그는 자신의 가혹한 말을 후회했다.</t>
-  </si>
-  <si>
-    <t>내가 널 붙잡게 되면 넌 후회할 거야!</t>
-  </si>
-  <si>
-    <t>그 분은 고령의 남자 분이었다.</t>
-  </si>
-  <si>
-    <t>그녀는 고령이 될 때까지 살았다.</t>
-  </si>
-  <si>
-    <t>그는 91세의 고령이 될 때까지 살았다.</t>
-  </si>
-  <si>
-    <t>그녀도 그 비밀을 아니?</t>
-  </si>
-  <si>
-    <t>일급비밀 혹은 기밀 정보</t>
-  </si>
-  <si>
-    <t>그 회의는 비밀리에 열렸다.</t>
-  </si>
-  <si>
-    <t>그의 전화 번호 적어 뒀니?</t>
-  </si>
-  <si>
-    <t>팩스 번호가 어떻게 되세요?</t>
-  </si>
-  <si>
-    <t>내선 번호가 어떻게 되요?</t>
-  </si>
-  <si>
-    <t>전화를 건 사람이 전화를 끊었다.</t>
-  </si>
-  <si>
-    <t>전화벨이 울리고 있어[전화가 왔어].</t>
-  </si>
-  <si>
-    <t>전화 좀 써도 될까요?</t>
-  </si>
-  <si>
-    <t>후회</t>
-  </si>
-  <si>
-    <t>고령</t>
-  </si>
-  <si>
-    <t>비밀</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>전화</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -541,9 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -567,216 +461,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
